--- a/用例数据/沪A/定向可转债/转让/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转让/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="347">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1058,6 +1058,14 @@
   </si>
   <si>
     <t>000006908350</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3214,7 +3222,7 @@
   <dimension ref="A1:EI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3773,6 +3781,9 @@
       <c r="G2" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>190</v>
       </c>
@@ -4104,6 +4115,9 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>190</v>

--- a/用例数据/沪A/定向可转债/转让/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转让/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\定向可转债\转让\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="346">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1047,19 +1052,25 @@
   </si>
   <si>
     <t>30650036</t>
+  </si>
+  <si>
+    <t>A117212000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,150 +1080,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,194 +1107,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1420,312 +1116,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2012,59 +1423,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="14" width="11.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="15.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="14.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="15.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="8.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="10.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="14.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="19.7777777777778" customWidth="1"/>
-    <col min="23" max="24" width="14.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="9.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="23.1111111111111" customWidth="1"/>
-    <col min="27" max="27" width="10.7777777777778" customWidth="1"/>
-    <col min="28" max="28" width="15.2222222222222" customWidth="1"/>
-    <col min="29" max="30" width="14.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="23" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="26" max="26" width="23.125" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="30" width="14.125" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="14.1111111111111" customWidth="1"/>
-    <col min="34" max="34" width="11.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="8.66666666666667" customWidth="1"/>
-    <col min="37" max="37" width="15.2222222222222" customWidth="1"/>
-    <col min="38" max="38" width="10.7777777777778" customWidth="1"/>
-    <col min="39" max="42" width="11.8888888888889" customWidth="1"/>
-    <col min="43" max="43" width="9.66666666666667" customWidth="1"/>
+    <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="33" max="33" width="14.125" customWidth="1"/>
+    <col min="34" max="34" width="11.875" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="36" width="8.625" customWidth="1"/>
+    <col min="37" max="37" width="15.25" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
+    <col min="39" max="42" width="11.875" customWidth="1"/>
+    <col min="43" max="43" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:43">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +1606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:43">
+    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2305,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:43">
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -2415,79 +1826,78 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="14.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="26" width="11.8888888888889" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
-    <col min="28" max="28" width="14.1111111111111" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="26" width="11.875" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="28" max="28" width="14.125" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="47" width="14.1111111111111" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="47" width="14.125" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:51">
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +2052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:51">
+    <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -2779,7 +2189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:51">
+    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -2916,106 +2326,105 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="15.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
-    <col min="16" max="17" width="15.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="17.5555555555556" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="11.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="8.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="17.5555555555556" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="7.625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="16.4444444444444" customWidth="1"/>
-    <col min="34" max="34" width="15.2222222222222" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="33" max="33" width="16.5" customWidth="1"/>
+    <col min="34" max="34" width="15.25" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="20.8888888888889" customWidth="1"/>
-    <col min="38" max="38" width="24.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="23.1111111111111" customWidth="1"/>
+    <col min="36" max="36" width="11.875" customWidth="1"/>
+    <col min="37" max="37" width="20.875" customWidth="1"/>
+    <col min="38" max="38" width="24.25" customWidth="1"/>
+    <col min="39" max="39" width="23.125" customWidth="1"/>
     <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
+    <col min="42" max="42" width="14.125" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="15.2222222222222" customWidth="1"/>
+    <col min="44" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="47" width="15.25" customWidth="1"/>
     <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="16.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="23.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="19.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="23.1111111111111" customWidth="1"/>
-    <col min="55" max="55" width="15.2222222222222" customWidth="1"/>
-    <col min="56" max="56" width="18.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="17.5555555555556" customWidth="1"/>
-    <col min="58" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="18.6666666666667" customWidth="1"/>
-    <col min="65" max="65" width="25.4444444444444" customWidth="1"/>
-    <col min="66" max="66" width="27.6666666666667" customWidth="1"/>
-    <col min="67" max="67" width="20.8888888888889" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="23.1111111111111" customWidth="1"/>
-    <col min="70" max="70" width="9.66666666666667" customWidth="1"/>
-    <col min="71" max="71" width="23.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="24.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="19.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
-    <col min="76" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="15.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="16.4444444444444" customWidth="1"/>
-    <col min="79" max="79" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="19.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="26.5555555555556" customWidth="1"/>
-    <col min="82" max="82" width="14.1111111111111" customWidth="1"/>
+    <col min="50" max="50" width="14.125" customWidth="1"/>
+    <col min="51" max="51" width="16.5" customWidth="1"/>
+    <col min="52" max="52" width="23.125" customWidth="1"/>
+    <col min="53" max="53" width="19.75" customWidth="1"/>
+    <col min="54" max="54" width="23.125" customWidth="1"/>
+    <col min="55" max="55" width="15.25" customWidth="1"/>
+    <col min="56" max="56" width="18.625" customWidth="1"/>
+    <col min="57" max="57" width="17.5" customWidth="1"/>
+    <col min="58" max="59" width="16.5" customWidth="1"/>
+    <col min="60" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="16.5" customWidth="1"/>
+    <col min="63" max="63" width="17.5" customWidth="1"/>
+    <col min="64" max="64" width="18.625" customWidth="1"/>
+    <col min="65" max="65" width="25.5" customWidth="1"/>
+    <col min="66" max="66" width="27.625" customWidth="1"/>
+    <col min="67" max="67" width="20.875" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="23.125" customWidth="1"/>
+    <col min="70" max="70" width="9.625" customWidth="1"/>
+    <col min="71" max="71" width="23.125" customWidth="1"/>
+    <col min="72" max="72" width="18.625" customWidth="1"/>
+    <col min="73" max="73" width="24.25" customWidth="1"/>
+    <col min="74" max="74" width="19.75" customWidth="1"/>
+    <col min="75" max="75" width="14.125" customWidth="1"/>
+    <col min="76" max="76" width="17.5" customWidth="1"/>
+    <col min="77" max="77" width="15.25" customWidth="1"/>
+    <col min="78" max="78" width="16.5" customWidth="1"/>
+    <col min="79" max="79" width="18.625" customWidth="1"/>
+    <col min="80" max="80" width="19.75" customWidth="1"/>
+    <col min="81" max="81" width="26.5" customWidth="1"/>
+    <col min="82" max="82" width="14.125" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:83">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3266,7 +2675,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:83">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -3514,7 +2923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:83">
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -3765,166 +3174,165 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BY5" sqref="BY5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="14.1111111111111" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="15.2222222222222" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="15.25" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="34" width="14.125" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="17.5" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="9.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.5" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="14.1111111111111" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.5" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="14.125" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="14.125" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="9.625" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="10.75" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="15.25" customWidth="1"/>
+    <col min="73" max="73" width="11.875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="16.4444444444444" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
+    <col min="81" max="81" width="11.875" customWidth="1"/>
+    <col min="82" max="83" width="7.625" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="16.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="14.125" customWidth="1"/>
+    <col min="89" max="89" width="16.5" customWidth="1"/>
+    <col min="90" max="90" width="10.75" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="92" width="19.75" customWidth="1"/>
+    <col min="93" max="93" width="16.5" customWidth="1"/>
+    <col min="94" max="94" width="23.125" customWidth="1"/>
+    <col min="95" max="95" width="7.625" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="10.75" customWidth="1"/>
+    <col min="98" max="98" width="14.125" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.625" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="14.125" customWidth="1"/>
+    <col min="106" max="106" width="11.875" customWidth="1"/>
+    <col min="107" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="14.1111111111111" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="14.125" customWidth="1"/>
+    <col min="115" max="115" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="16.5" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="16.5" customWidth="1"/>
+    <col min="120" max="120" width="17.5" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.875" customWidth="1"/>
+    <col min="124" max="124" width="19.75" customWidth="1"/>
+    <col min="125" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="20.875" customWidth="1"/>
+    <col min="127" max="127" width="18.625" customWidth="1"/>
+    <col min="128" max="128" width="8.625" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
+    <col min="131" max="131" width="14.125" customWidth="1"/>
+    <col min="132" max="132" width="10.75" customWidth="1"/>
+    <col min="133" max="133" width="11.875" customWidth="1"/>
+    <col min="134" max="134" width="15.25" customWidth="1"/>
+    <col min="135" max="135" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:135">
+    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4331,7 +3739,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:135">
+    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>304</v>
       </c>
@@ -4362,8 +3770,8 @@
       <c r="L2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
+      <c r="M2" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>48</v>
@@ -4539,8 +3947,8 @@
       <c r="BY2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>45</v>
+      <c r="BZ2" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>57</v>
@@ -4654,7 +4062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:135">
+    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>322</v>
       </c>
@@ -4862,8 +4270,8 @@
       <c r="BY3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BZ3" s="1" t="s">
-        <v>45</v>
+      <c r="BZ3" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>57</v>
@@ -4977,98 +4385,97 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
+    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="14.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="26" width="11.8888888888889" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
-    <col min="28" max="28" width="15.2222222222222" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="26" width="11.875" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="47" width="14.1111111111111" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="52" width="14.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="8.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="47" width="14.125" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="52" width="14.125" customWidth="1"/>
+    <col min="53" max="53" width="8.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="14.125" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="9.66666666666667" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="10.75" customWidth="1"/>
+    <col min="61" max="61" width="5.625" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="9.625" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="2.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="6.66666666666667" customWidth="1"/>
-    <col min="68" max="68" width="10.6666666666667" customWidth="1"/>
-    <col min="69" max="69" width="8.66666666666667" customWidth="1"/>
-    <col min="70" max="83" width="2.66666666666667" customWidth="1"/>
+    <col min="66" max="66" width="2.625" customWidth="1"/>
+    <col min="67" max="67" width="6.625" customWidth="1"/>
+    <col min="68" max="68" width="10.625" customWidth="1"/>
+    <col min="69" max="69" width="8.625" customWidth="1"/>
+    <col min="70" max="83" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5319,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>335</v>
       </c>
@@ -5552,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>335</v>
       </c>
@@ -5732,7 +5139,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/沪A/定向可转债/转让/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转让/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="345">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -631,21 +631,12 @@
     <t>0.00000000</t>
   </si>
   <si>
-    <t>100000000.000</t>
-  </si>
-  <si>
     <t>2997000.000</t>
   </si>
   <si>
     <t>970000</t>
   </si>
   <si>
-    <t>100.000</t>
-  </si>
-  <si>
-    <t>qwgrp0</t>
-  </si>
-  <si>
     <t>BRIEFID</t>
   </si>
   <si>
@@ -937,15 +928,9 @@
     <t>SECONDOTHERFEE</t>
   </si>
   <si>
-    <t>30650037</t>
-  </si>
-  <si>
     <t>005_001_001</t>
   </si>
   <si>
-    <t>20201230150442</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -955,9 +940,6 @@
     <t>-3003000.000</t>
   </si>
   <si>
-    <t>996997000.000</t>
-  </si>
-  <si>
     <t>3000.000</t>
   </si>
   <si>
@@ -970,18 +952,12 @@
     <t>99998</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>000006407814</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -991,18 +967,9 @@
     <t>0.0000000000</t>
   </si>
   <si>
-    <t>30650038</t>
-  </si>
-  <si>
     <t>005_002_001</t>
   </si>
   <si>
-    <t>999994000.000</t>
-  </si>
-  <si>
-    <t>000006407815</t>
-  </si>
-  <si>
     <t>RECKONINGQTY</t>
   </si>
   <si>
@@ -1054,16 +1021,43 @@
     <t>30650036</t>
   </si>
   <si>
-    <t>A117212000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>330000.0000</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>97000000.0000</t>
+  </si>
+  <si>
+    <t>30052653</t>
+  </si>
+  <si>
+    <t>20221011231452</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>996733745.280</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000006908349</t>
+  </si>
+  <si>
+    <t>30052654</t>
+  </si>
+  <si>
+    <t>999730745.280</t>
+  </si>
+  <si>
+    <t>000006908350</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE20"/>
+  <dimension ref="A1:CH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2424,7 +2418,7 @@
     <col min="83" max="83" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2669,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -2704,13 +2698,13 @@
         <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>57</v>
@@ -2752,10 +2746,10 @@
         <v>51</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>57</v>
+        <v>333</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>45</v>
@@ -2799,6 +2793,9 @@
       <c r="AO2" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>45</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>193</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>57</v>
@@ -2922,8 +2919,17 @@
       <c r="CE2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -2952,22 +2958,22 @@
         <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>201</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>45</v>
@@ -3000,10 +3006,10 @@
         <v>51</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>45</v>
@@ -3048,7 +3054,7 @@
         <v>198</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>45</v>
@@ -3126,10 +3132,10 @@
         <v>201</v>
       </c>
       <c r="BP3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>199</v>
@@ -3173,24 +3179,30 @@
       <c r="CE3" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="CF3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3199,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE14"/>
+  <dimension ref="A1:EI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BY5" sqref="BY5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3332,12 +3344,12 @@
     <col min="135" max="135" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>130</v>
@@ -3346,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3355,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>78</v>
@@ -3364,10 +3376,10 @@
         <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>68</v>
@@ -3385,10 +3397,10 @@
         <v>132</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>8</v>
@@ -3406,13 +3418,13 @@
         <v>1</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>11</v>
@@ -3436,13 +3448,13 @@
         <v>29</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>30</v>
@@ -3457,262 +3469,262 @@
         <v>33</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="CL1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CO1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="DN1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>35</v>
@@ -3721,39 +3733,39 @@
         <v>36</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="EC1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>45</v>
@@ -3767,11 +3779,11 @@
       <c r="K2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>343</v>
+      <c r="L2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>48</v>
@@ -3789,7 +3801,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>51</v>
@@ -3804,16 +3816,16 @@
         <v>99</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>194</v>
@@ -3822,10 +3834,10 @@
         <v>57</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -3846,7 +3858,7 @@
         <v>57</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>57</v>
@@ -3858,10 +3870,10 @@
         <v>57</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>190</v>
@@ -3870,10 +3882,10 @@
         <v>191</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>60</v>
@@ -3885,7 +3897,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>45</v>
@@ -3894,7 +3906,7 @@
         <v>45</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>61</v>
@@ -3918,7 +3930,7 @@
         <v>45</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>61</v>
@@ -3939,16 +3951,16 @@
         <v>61</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>344</v>
+        <v>309</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>57</v>
@@ -3966,19 +3978,19 @@
         <v>45</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>65</v>
@@ -3987,7 +3999,7 @@
         <v>45</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>57</v>
@@ -3996,7 +4008,7 @@
         <v>57</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>198</v>
@@ -4005,7 +4017,7 @@
         <v>61</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>57</v>
@@ -4061,22 +4073,31 @@
       <c r="EE2" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="EG2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>45</v>
@@ -4091,7 +4112,7 @@
         <v>191</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>46</v>
@@ -4112,7 +4133,7 @@
         <v>197</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>51</v>
@@ -4127,28 +4148,28 @@
         <v>99</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>57</v>
@@ -4169,7 +4190,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>57</v>
@@ -4181,10 +4202,10 @@
         <v>57</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>190</v>
@@ -4193,10 +4214,10 @@
         <v>191</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>60</v>
@@ -4208,7 +4229,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>45</v>
@@ -4217,7 +4238,7 @@
         <v>45</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>61</v>
@@ -4241,7 +4262,7 @@
         <v>45</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>61</v>
@@ -4262,16 +4283,16 @@
         <v>61</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>345</v>
+        <v>309</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>57</v>
@@ -4289,19 +4310,19 @@
         <v>45</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="CT3" s="1" t="s">
         <v>65</v>
@@ -4310,7 +4331,7 @@
         <v>45</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>57</v>
@@ -4319,7 +4340,7 @@
         <v>57</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>198</v>
@@ -4328,7 +4349,7 @@
         <v>61</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>57</v>
@@ -4384,18 +4405,27 @@
       <c r="EE3" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="EG3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4627,7 +4657,7 @@
         <v>94</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>34</v>
@@ -4639,37 +4669,37 @@
         <v>36</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="BN1">
         <v>0</v>
@@ -4728,7 +4758,7 @@
     </row>
     <row r="2" spans="1:83" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>96</v>
@@ -4768,17 +4798,17 @@
         <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>45</v>
@@ -4803,7 +4833,7 @@
         <v>98</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>57</v>
@@ -4853,7 +4883,7 @@
         <v>96</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>101</v>
@@ -4881,7 +4911,7 @@
         <v>45</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -4902,7 +4932,7 @@
         <v>45</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -4961,7 +4991,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>96</v>
@@ -5001,17 +5031,17 @@
         <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>45</v>
@@ -5036,7 +5066,7 @@
         <v>112</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>57</v>
@@ -5086,7 +5116,7 @@
         <v>96</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>101</v>
@@ -5114,7 +5144,7 @@
         <v>45</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
@@ -5135,7 +5165,7 @@
         <v>45</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/用例数据/沪A/定向可转债/转让/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转让/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="349">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1040,9 +1040,6 @@
   </si>
   <si>
     <t>996733745.280</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>5</t>
@@ -1065,6 +1062,18 @@
   </si>
   <si>
     <t>CCB1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1437,47 +1446,47 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="8.625" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="19.75" customWidth="1"/>
-    <col min="23" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="25" width="9.625" customWidth="1"/>
-    <col min="26" max="26" width="23.125" customWidth="1"/>
-    <col min="27" max="27" width="10.75" customWidth="1"/>
-    <col min="28" max="28" width="15.25" customWidth="1"/>
-    <col min="29" max="30" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="23" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="23.109375" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1"/>
+    <col min="29" max="30" width="14.109375" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="10.75" customWidth="1"/>
-    <col min="33" max="33" width="14.125" customWidth="1"/>
-    <col min="34" max="34" width="11.875" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="36" width="8.625" customWidth="1"/>
-    <col min="37" max="37" width="15.25" customWidth="1"/>
-    <col min="38" max="38" width="10.75" customWidth="1"/>
-    <col min="39" max="42" width="11.875" customWidth="1"/>
-    <col min="43" max="43" width="9.625" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
+    <col min="33" max="33" width="14.109375" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15.21875" customWidth="1"/>
+    <col min="38" max="38" width="10.77734375" customWidth="1"/>
+    <col min="39" max="42" width="11.88671875" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1828,15 +1837,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,54 +1861,54 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="26" width="11.875" customWidth="1"/>
-    <col min="27" max="27" width="9.625" customWidth="1"/>
-    <col min="28" max="28" width="14.125" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="26" width="11.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="16.5" customWidth="1"/>
-    <col min="46" max="47" width="14.125" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="47" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -2328,12 +2337,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2348,85 +2357,85 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="23" width="8.625" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="7.625" customWidth="1"/>
-    <col min="26" max="26" width="17.5" customWidth="1"/>
-    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
-    <col min="32" max="32" width="10.75" customWidth="1"/>
-    <col min="33" max="33" width="16.5" customWidth="1"/>
-    <col min="34" max="34" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.875" customWidth="1"/>
-    <col min="37" max="37" width="20.875" customWidth="1"/>
-    <col min="38" max="38" width="24.25" customWidth="1"/>
-    <col min="39" max="39" width="23.125" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" customWidth="1"/>
+    <col min="37" max="37" width="20.88671875" customWidth="1"/>
+    <col min="38" max="38" width="24.21875" customWidth="1"/>
+    <col min="39" max="39" width="23.109375" customWidth="1"/>
     <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.125" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="47" width="15.25" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="47" width="15.21875" customWidth="1"/>
     <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.125" customWidth="1"/>
-    <col min="51" max="51" width="16.5" customWidth="1"/>
-    <col min="52" max="52" width="23.125" customWidth="1"/>
-    <col min="53" max="53" width="19.75" customWidth="1"/>
-    <col min="54" max="54" width="23.125" customWidth="1"/>
-    <col min="55" max="55" width="15.25" customWidth="1"/>
-    <col min="56" max="56" width="18.625" customWidth="1"/>
-    <col min="57" max="57" width="17.5" customWidth="1"/>
-    <col min="58" max="59" width="16.5" customWidth="1"/>
-    <col min="60" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="16.5" customWidth="1"/>
-    <col min="63" max="63" width="17.5" customWidth="1"/>
-    <col min="64" max="64" width="18.625" customWidth="1"/>
-    <col min="65" max="65" width="25.5" customWidth="1"/>
-    <col min="66" max="66" width="27.625" customWidth="1"/>
-    <col min="67" max="67" width="20.875" customWidth="1"/>
-    <col min="68" max="68" width="16.5" customWidth="1"/>
-    <col min="69" max="69" width="23.125" customWidth="1"/>
-    <col min="70" max="70" width="9.625" customWidth="1"/>
-    <col min="71" max="71" width="23.125" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="24.25" customWidth="1"/>
-    <col min="74" max="74" width="19.75" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
-    <col min="76" max="76" width="17.5" customWidth="1"/>
-    <col min="77" max="77" width="15.25" customWidth="1"/>
-    <col min="78" max="78" width="16.5" customWidth="1"/>
-    <col min="79" max="79" width="18.625" customWidth="1"/>
-    <col min="80" max="80" width="19.75" customWidth="1"/>
-    <col min="81" max="81" width="26.5" customWidth="1"/>
-    <col min="82" max="82" width="14.125" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="51" max="51" width="16.44140625" customWidth="1"/>
+    <col min="52" max="52" width="23.109375" customWidth="1"/>
+    <col min="53" max="53" width="19.77734375" customWidth="1"/>
+    <col min="54" max="54" width="23.109375" customWidth="1"/>
+    <col min="55" max="55" width="15.21875" customWidth="1"/>
+    <col min="56" max="56" width="18.6640625" customWidth="1"/>
+    <col min="57" max="57" width="17.44140625" customWidth="1"/>
+    <col min="58" max="59" width="16.44140625" customWidth="1"/>
+    <col min="60" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" customWidth="1"/>
+    <col min="63" max="63" width="17.44140625" customWidth="1"/>
+    <col min="64" max="64" width="18.6640625" customWidth="1"/>
+    <col min="65" max="65" width="25.44140625" customWidth="1"/>
+    <col min="66" max="66" width="27.6640625" customWidth="1"/>
+    <col min="67" max="67" width="20.88671875" customWidth="1"/>
+    <col min="68" max="68" width="16.44140625" customWidth="1"/>
+    <col min="69" max="69" width="23.109375" customWidth="1"/>
+    <col min="70" max="70" width="9.6640625" customWidth="1"/>
+    <col min="71" max="71" width="23.109375" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="24.21875" customWidth="1"/>
+    <col min="74" max="74" width="19.77734375" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
+    <col min="76" max="76" width="17.44140625" customWidth="1"/>
+    <col min="77" max="77" width="15.21875" customWidth="1"/>
+    <col min="78" max="78" width="16.44140625" customWidth="1"/>
+    <col min="79" max="79" width="18.6640625" customWidth="1"/>
+    <col min="80" max="80" width="19.77734375" customWidth="1"/>
+    <col min="81" max="81" width="26.44140625" customWidth="1"/>
+    <col min="82" max="82" width="14.109375" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -3197,20 +3206,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3221,138 +3230,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="9.625" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="15.25" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="23.125" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="34" width="14.125" customWidth="1"/>
+    <col min="27" max="27" width="15.21875" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.125" customWidth="1"/>
-    <col min="49" max="49" width="8.625" customWidth="1"/>
-    <col min="50" max="50" width="17.5" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
-    <col min="52" max="52" width="8.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.5" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="14.125" customWidth="1"/>
-    <col min="61" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="14.125" customWidth="1"/>
-    <col min="63" max="63" width="11.875" customWidth="1"/>
-    <col min="64" max="64" width="8.625" customWidth="1"/>
-    <col min="65" max="65" width="14.125" customWidth="1"/>
-    <col min="66" max="66" width="9.625" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="10.75" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="14.109375" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="15.25" customWidth="1"/>
-    <col min="73" max="73" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5" customWidth="1"/>
-    <col min="76" max="76" width="20.875" customWidth="1"/>
-    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="80" width="10.75" customWidth="1"/>
-    <col min="81" max="81" width="11.875" customWidth="1"/>
-    <col min="82" max="83" width="7.625" customWidth="1"/>
-    <col min="84" max="85" width="17.5" customWidth="1"/>
-    <col min="86" max="86" width="16.5" customWidth="1"/>
-    <col min="87" max="87" width="11.875" customWidth="1"/>
-    <col min="88" max="88" width="14.125" customWidth="1"/>
-    <col min="89" max="89" width="16.5" customWidth="1"/>
-    <col min="90" max="90" width="10.75" customWidth="1"/>
-    <col min="91" max="91" width="11.875" customWidth="1"/>
-    <col min="92" max="92" width="19.75" customWidth="1"/>
-    <col min="93" max="93" width="16.5" customWidth="1"/>
-    <col min="94" max="94" width="23.125" customWidth="1"/>
-    <col min="95" max="95" width="7.625" customWidth="1"/>
-    <col min="96" max="96" width="18.625" customWidth="1"/>
-    <col min="97" max="97" width="10.75" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.44140625" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="16.44140625" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.625" customWidth="1"/>
-    <col min="104" max="104" width="16.5" customWidth="1"/>
-    <col min="105" max="105" width="14.125" customWidth="1"/>
-    <col min="106" max="106" width="11.875" customWidth="1"/>
-    <col min="107" max="108" width="15.25" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="14.125" customWidth="1"/>
-    <col min="115" max="115" width="19.75" customWidth="1"/>
-    <col min="116" max="116" width="16.5" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="16.5" customWidth="1"/>
-    <col min="120" max="120" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.44140625" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.875" customWidth="1"/>
-    <col min="124" max="124" width="19.75" customWidth="1"/>
-    <col min="125" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="20.875" customWidth="1"/>
-    <col min="127" max="127" width="18.625" customWidth="1"/>
-    <col min="128" max="128" width="8.625" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.125" customWidth="1"/>
-    <col min="132" max="132" width="10.75" customWidth="1"/>
-    <col min="133" max="133" width="11.875" customWidth="1"/>
-    <col min="134" max="134" width="15.25" customWidth="1"/>
-    <col min="135" max="135" width="16.5" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3759,7 +3768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>335</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>190</v>
@@ -3884,7 +3893,7 @@
         <v>307</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>190</v>
@@ -3908,7 +3917,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>45</v>
@@ -3971,25 +3980,25 @@
         <v>309</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>61</v>
@@ -4094,9 +4103,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>314</v>
@@ -4117,7 +4126,7 @@
         <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>190</v>
@@ -4171,7 +4180,7 @@
         <v>111</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>203</v>
@@ -4219,7 +4228,7 @@
         <v>307</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>190</v>
@@ -4243,7 +4252,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>45</v>
@@ -4306,7 +4315,7 @@
         <v>309</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>57</v>
@@ -4324,7 +4333,7 @@
         <v>45</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>61</v>
@@ -4429,17 +4438,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4454,72 +4463,72 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="26" width="11.875" customWidth="1"/>
-    <col min="27" max="27" width="9.625" customWidth="1"/>
-    <col min="28" max="28" width="15.25" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="26" width="11.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="16.5" customWidth="1"/>
-    <col min="46" max="47" width="14.125" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="52" width="14.125" customWidth="1"/>
-    <col min="53" max="53" width="8.625" customWidth="1"/>
-    <col min="54" max="54" width="15.25" customWidth="1"/>
-    <col min="55" max="55" width="14.125" customWidth="1"/>
-    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="47" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="52" width="14.109375" customWidth="1"/>
+    <col min="53" max="53" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="10.75" customWidth="1"/>
-    <col min="61" max="61" width="5.625" customWidth="1"/>
-    <col min="62" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="9.625" customWidth="1"/>
-    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="9.6640625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="2.625" customWidth="1"/>
-    <col min="67" max="67" width="6.625" customWidth="1"/>
-    <col min="68" max="68" width="10.625" customWidth="1"/>
-    <col min="69" max="69" width="8.625" customWidth="1"/>
-    <col min="70" max="83" width="2.625" customWidth="1"/>
+    <col min="66" max="66" width="2.6640625" customWidth="1"/>
+    <col min="67" max="67" width="6.6640625" customWidth="1"/>
+    <col min="68" max="68" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="8.6640625" customWidth="1"/>
+    <col min="70" max="83" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>324</v>
       </c>
